--- a/docs/Test2_Questions_table.xlsx
+++ b/docs/Test2_Questions_table.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
   <si>
     <t>QUESTIONS</t>
   </si>
@@ -614,6 +614,9 @@
   </si>
   <si>
     <t>¿Encuentras que te falta compasión y afecto hacia los demás?</t>
+  </si>
+  <si>
+    <t>I_QSTN</t>
   </si>
 </sst>
 </file>
@@ -667,8 +670,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -698,7 +703,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -709,6 +714,7 @@
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -719,6 +725,7 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1048,10 +1055,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D116"/>
+  <dimension ref="A1:E116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D71" sqref="A3:D71"/>
+    <sheetView tabSelected="1" topLeftCell="B49" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1059,12 +1066,12 @@
     <col min="1" max="1" width="162.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1072,13 +1079,16 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>84</v>
       </c>
@@ -1086,13 +1096,16 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>85</v>
       </c>
@@ -1103,10 +1116,13 @@
         <v>2</v>
       </c>
       <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>86</v>
       </c>
@@ -1114,13 +1130,16 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>87</v>
       </c>
@@ -1128,13 +1147,16 @@
         <v>2</v>
       </c>
       <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
         <v>20</v>
       </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>88</v>
       </c>
@@ -1142,13 +1164,16 @@
         <v>2</v>
       </c>
       <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
         <v>20</v>
       </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>89</v>
       </c>
@@ -1156,13 +1181,16 @@
         <v>2</v>
       </c>
       <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
         <v>20</v>
       </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>90</v>
       </c>
@@ -1170,13 +1198,16 @@
         <v>2</v>
       </c>
       <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
         <v>6</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>91</v>
       </c>
@@ -1184,13 +1215,16 @@
         <v>2</v>
       </c>
       <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
         <v>6</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>92</v>
       </c>
@@ -1198,13 +1232,16 @@
         <v>2</v>
       </c>
       <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
         <v>6</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>93</v>
       </c>
@@ -1212,13 +1249,16 @@
         <v>2</v>
       </c>
       <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
         <v>25</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>94</v>
       </c>
@@ -1226,13 +1266,16 @@
         <v>2</v>
       </c>
       <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
         <v>25</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>95</v>
       </c>
@@ -1240,13 +1283,16 @@
         <v>2</v>
       </c>
       <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14">
         <v>25</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>96</v>
       </c>
@@ -1254,13 +1300,16 @@
         <v>2</v>
       </c>
       <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="D15">
         <v>26</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>97</v>
       </c>
@@ -1268,13 +1317,16 @@
         <v>2</v>
       </c>
       <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="D16">
         <v>26</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>98</v>
       </c>
@@ -1282,13 +1334,16 @@
         <v>2</v>
       </c>
       <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17">
         <v>26</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>99</v>
       </c>
@@ -1296,13 +1351,16 @@
         <v>2</v>
       </c>
       <c r="C18">
+        <v>16</v>
+      </c>
+      <c r="D18">
         <v>5</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>100</v>
       </c>
@@ -1310,13 +1368,16 @@
         <v>2</v>
       </c>
       <c r="C19">
+        <v>17</v>
+      </c>
+      <c r="D19">
         <v>5</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>101</v>
       </c>
@@ -1324,13 +1385,16 @@
         <v>2</v>
       </c>
       <c r="C20">
+        <v>18</v>
+      </c>
+      <c r="D20">
         <v>5</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>102</v>
       </c>
@@ -1338,13 +1402,16 @@
         <v>2</v>
       </c>
       <c r="C21">
+        <v>19</v>
+      </c>
+      <c r="D21">
         <v>28</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>103</v>
       </c>
@@ -1352,13 +1419,16 @@
         <v>2</v>
       </c>
       <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22">
         <v>28</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>104</v>
       </c>
@@ -1366,13 +1436,16 @@
         <v>2</v>
       </c>
       <c r="C23">
+        <v>21</v>
+      </c>
+      <c r="D23">
         <v>28</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>105</v>
       </c>
@@ -1380,13 +1453,16 @@
         <v>2</v>
       </c>
       <c r="C24">
+        <v>22</v>
+      </c>
+      <c r="D24">
         <v>36</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>106</v>
       </c>
@@ -1394,13 +1470,16 @@
         <v>2</v>
       </c>
       <c r="C25">
+        <v>23</v>
+      </c>
+      <c r="D25">
         <v>36</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>107</v>
       </c>
@@ -1408,13 +1487,16 @@
         <v>2</v>
       </c>
       <c r="C26">
+        <v>24</v>
+      </c>
+      <c r="D26">
         <v>36</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>108</v>
       </c>
@@ -1422,13 +1504,16 @@
         <v>2</v>
       </c>
       <c r="C27">
+        <v>25</v>
+      </c>
+      <c r="D27">
         <v>19</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>109</v>
       </c>
@@ -1436,13 +1521,16 @@
         <v>2</v>
       </c>
       <c r="C28">
+        <v>26</v>
+      </c>
+      <c r="D28">
         <v>19</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>110</v>
       </c>
@@ -1450,13 +1538,16 @@
         <v>2</v>
       </c>
       <c r="C29">
+        <v>27</v>
+      </c>
+      <c r="D29">
         <v>19</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>111</v>
       </c>
@@ -1464,13 +1555,16 @@
         <v>2</v>
       </c>
       <c r="C30">
+        <v>28</v>
+      </c>
+      <c r="D30">
         <v>17</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>112</v>
       </c>
@@ -1478,13 +1572,16 @@
         <v>2</v>
       </c>
       <c r="C31">
+        <v>29</v>
+      </c>
+      <c r="D31">
         <v>17</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>113</v>
       </c>
@@ -1492,13 +1589,16 @@
         <v>2</v>
       </c>
       <c r="C32">
+        <v>30</v>
+      </c>
+      <c r="D32">
         <v>17</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>114</v>
       </c>
@@ -1506,13 +1606,16 @@
         <v>2</v>
       </c>
       <c r="C33">
+        <v>31</v>
+      </c>
+      <c r="D33">
         <v>9</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>115</v>
       </c>
@@ -1520,13 +1623,16 @@
         <v>2</v>
       </c>
       <c r="C34">
+        <v>32</v>
+      </c>
+      <c r="D34">
         <v>9</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>116</v>
       </c>
@@ -1534,13 +1640,16 @@
         <v>2</v>
       </c>
       <c r="C35">
+        <v>33</v>
+      </c>
+      <c r="D35">
         <v>9</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>117</v>
       </c>
@@ -1548,13 +1657,16 @@
         <v>2</v>
       </c>
       <c r="C36">
+        <v>34</v>
+      </c>
+      <c r="D36">
         <v>16</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>118</v>
       </c>
@@ -1562,13 +1674,16 @@
         <v>2</v>
       </c>
       <c r="C37">
+        <v>35</v>
+      </c>
+      <c r="D37">
         <v>16</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>119</v>
       </c>
@@ -1576,13 +1691,16 @@
         <v>2</v>
       </c>
       <c r="C38">
+        <v>36</v>
+      </c>
+      <c r="D38">
         <v>16</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>120</v>
       </c>
@@ -1593,10 +1711,13 @@
         <v>37</v>
       </c>
       <c r="D39">
+        <v>37</v>
+      </c>
+      <c r="E39">
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>121</v>
       </c>
@@ -1604,13 +1725,16 @@
         <v>2</v>
       </c>
       <c r="C40">
+        <v>38</v>
+      </c>
+      <c r="D40">
         <v>37</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>122</v>
       </c>
@@ -1618,13 +1742,16 @@
         <v>2</v>
       </c>
       <c r="C41">
+        <v>39</v>
+      </c>
+      <c r="D41">
         <v>37</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>123</v>
       </c>
@@ -1632,13 +1759,16 @@
         <v>2</v>
       </c>
       <c r="C42">
+        <v>40</v>
+      </c>
+      <c r="D42">
         <v>35</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>124</v>
       </c>
@@ -1646,13 +1776,16 @@
         <v>2</v>
       </c>
       <c r="C43">
+        <v>41</v>
+      </c>
+      <c r="D43">
         <v>35</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>125</v>
       </c>
@@ -1660,13 +1793,16 @@
         <v>2</v>
       </c>
       <c r="C44">
+        <v>42</v>
+      </c>
+      <c r="D44">
         <v>35</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>126</v>
       </c>
@@ -1674,13 +1810,16 @@
         <v>2</v>
       </c>
       <c r="C45">
+        <v>43</v>
+      </c>
+      <c r="D45">
         <v>7</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>127</v>
       </c>
@@ -1688,13 +1827,16 @@
         <v>2</v>
       </c>
       <c r="C46">
+        <v>44</v>
+      </c>
+      <c r="D46">
         <v>7</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>128</v>
       </c>
@@ -1702,13 +1844,16 @@
         <v>2</v>
       </c>
       <c r="C47">
+        <v>45</v>
+      </c>
+      <c r="D47">
         <v>7</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>129</v>
       </c>
@@ -1716,13 +1861,16 @@
         <v>2</v>
       </c>
       <c r="C48">
+        <v>46</v>
+      </c>
+      <c r="D48">
         <v>23</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>130</v>
       </c>
@@ -1730,13 +1878,16 @@
         <v>2</v>
       </c>
       <c r="C49">
+        <v>47</v>
+      </c>
+      <c r="D49">
         <v>23</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>131</v>
       </c>
@@ -1744,13 +1895,16 @@
         <v>2</v>
       </c>
       <c r="C50">
+        <v>48</v>
+      </c>
+      <c r="D50">
         <v>23</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>132</v>
       </c>
@@ -1758,13 +1912,16 @@
         <v>2</v>
       </c>
       <c r="C51">
+        <v>49</v>
+      </c>
+      <c r="D51">
         <v>34</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>133</v>
       </c>
@@ -1772,13 +1929,16 @@
         <v>2</v>
       </c>
       <c r="C52">
+        <v>50</v>
+      </c>
+      <c r="D52">
         <v>34</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>134</v>
       </c>
@@ -1786,13 +1946,16 @@
         <v>2</v>
       </c>
       <c r="C53">
+        <v>51</v>
+      </c>
+      <c r="D53">
         <v>34</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>135</v>
       </c>
@@ -1800,13 +1963,16 @@
         <v>2</v>
       </c>
       <c r="C54">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="D54">
         <v>18</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>136</v>
       </c>
@@ -1814,13 +1980,16 @@
         <v>2</v>
       </c>
       <c r="C55">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="D55">
         <v>18</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>137</v>
       </c>
@@ -1828,13 +1997,16 @@
         <v>2</v>
       </c>
       <c r="C56">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="D56">
         <v>18</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>138</v>
       </c>
@@ -1842,13 +2014,16 @@
         <v>2</v>
       </c>
       <c r="C57">
+        <v>55</v>
+      </c>
+      <c r="D57">
         <v>14</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>139</v>
       </c>
@@ -1856,13 +2031,16 @@
         <v>2</v>
       </c>
       <c r="C58">
+        <v>56</v>
+      </c>
+      <c r="D58">
         <v>14</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>140</v>
       </c>
@@ -1870,13 +2048,16 @@
         <v>2</v>
       </c>
       <c r="C59">
+        <v>57</v>
+      </c>
+      <c r="D59">
         <v>14</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>141</v>
       </c>
@@ -1884,13 +2065,16 @@
         <v>2</v>
       </c>
       <c r="C60">
+        <v>58</v>
+      </c>
+      <c r="D60">
         <v>1</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>142</v>
       </c>
@@ -1898,13 +2082,16 @@
         <v>2</v>
       </c>
       <c r="C61">
+        <v>59</v>
+      </c>
+      <c r="D61">
         <v>1</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>143</v>
       </c>
@@ -1912,13 +2099,16 @@
         <v>2</v>
       </c>
       <c r="C62">
+        <v>60</v>
+      </c>
+      <c r="D62">
         <v>1</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>144</v>
       </c>
@@ -1926,13 +2116,16 @@
         <v>2</v>
       </c>
       <c r="C63">
+        <v>61</v>
+      </c>
+      <c r="D63">
         <v>4</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>145</v>
       </c>
@@ -1940,13 +2133,16 @@
         <v>2</v>
       </c>
       <c r="C64">
+        <v>62</v>
+      </c>
+      <c r="D64">
         <v>4</v>
       </c>
-      <c r="D64">
+      <c r="E64">
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>146</v>
       </c>
@@ -1954,13 +2150,16 @@
         <v>2</v>
       </c>
       <c r="C65">
+        <v>63</v>
+      </c>
+      <c r="D65">
         <v>4</v>
       </c>
-      <c r="D65">
+      <c r="E65">
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>147</v>
       </c>
@@ -1968,13 +2167,16 @@
         <v>2</v>
       </c>
       <c r="C66">
+        <v>64</v>
+      </c>
+      <c r="D66">
         <v>33</v>
       </c>
-      <c r="D66">
+      <c r="E66">
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>148</v>
       </c>
@@ -1982,13 +2184,16 @@
         <v>2</v>
       </c>
       <c r="C67">
+        <v>65</v>
+      </c>
+      <c r="D67">
         <v>33</v>
       </c>
-      <c r="D67">
+      <c r="E67">
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>149</v>
       </c>
@@ -1996,13 +2201,16 @@
         <v>2</v>
       </c>
       <c r="C68">
+        <v>66</v>
+      </c>
+      <c r="D68">
         <v>33</v>
       </c>
-      <c r="D68">
+      <c r="E68">
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
         <v>150</v>
       </c>
@@ -2010,13 +2218,16 @@
         <v>2</v>
       </c>
       <c r="C69">
+        <v>67</v>
+      </c>
+      <c r="D69">
         <v>15</v>
       </c>
-      <c r="D69">
+      <c r="E69">
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
         <v>151</v>
       </c>
@@ -2024,13 +2235,16 @@
         <v>2</v>
       </c>
       <c r="C70">
+        <v>68</v>
+      </c>
+      <c r="D70">
         <v>15</v>
       </c>
-      <c r="D70">
+      <c r="E70">
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:5">
       <c r="A71" s="3" t="s">
         <v>197</v>
       </c>
@@ -2038,13 +2252,16 @@
         <v>2</v>
       </c>
       <c r="C71">
+        <v>69</v>
+      </c>
+      <c r="D71">
         <v>15</v>
       </c>
-      <c r="D71">
+      <c r="E71">
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:5">
       <c r="A72" s="2" t="s">
         <v>152</v>
       </c>
@@ -2052,13 +2269,16 @@
         <v>2</v>
       </c>
       <c r="C72">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="D72">
         <v>24</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="E72">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" s="2" t="s">
         <v>153</v>
       </c>
@@ -2066,13 +2286,16 @@
         <v>2</v>
       </c>
       <c r="C73">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="D73">
         <v>24</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="E73">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" s="2" t="s">
         <v>154</v>
       </c>
@@ -2080,13 +2303,16 @@
         <v>2</v>
       </c>
       <c r="C74">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="D74">
         <v>24</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="E74">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" s="2" t="s">
         <v>155</v>
       </c>
@@ -2094,13 +2320,16 @@
         <v>2</v>
       </c>
       <c r="C75">
+        <v>73</v>
+      </c>
+      <c r="D75">
         <v>11</v>
       </c>
-      <c r="D75">
+      <c r="E75">
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:5">
       <c r="A76" s="2" t="s">
         <v>156</v>
       </c>
@@ -2108,13 +2337,16 @@
         <v>2</v>
       </c>
       <c r="C76">
+        <v>74</v>
+      </c>
+      <c r="D76">
         <v>11</v>
       </c>
-      <c r="D76">
+      <c r="E76">
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:5">
       <c r="A77" s="2" t="s">
         <v>157</v>
       </c>
@@ -2122,13 +2354,16 @@
         <v>2</v>
       </c>
       <c r="C77">
+        <v>75</v>
+      </c>
+      <c r="D77">
         <v>11</v>
       </c>
-      <c r="D77">
+      <c r="E77">
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:5">
       <c r="A78" s="2" t="s">
         <v>158</v>
       </c>
@@ -2136,13 +2371,16 @@
         <v>2</v>
       </c>
       <c r="C78">
+        <v>76</v>
+      </c>
+      <c r="D78">
         <v>29</v>
       </c>
-      <c r="D78">
+      <c r="E78">
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:5">
       <c r="A79" s="2" t="s">
         <v>159</v>
       </c>
@@ -2150,13 +2388,16 @@
         <v>2</v>
       </c>
       <c r="C79">
+        <v>77</v>
+      </c>
+      <c r="D79">
         <v>29</v>
       </c>
-      <c r="D79">
+      <c r="E79">
         <v>26</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:5">
       <c r="A80" s="2" t="s">
         <v>160</v>
       </c>
@@ -2164,13 +2405,16 @@
         <v>2</v>
       </c>
       <c r="C80">
+        <v>78</v>
+      </c>
+      <c r="D80">
         <v>29</v>
       </c>
-      <c r="D80">
+      <c r="E80">
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:5">
       <c r="A81" s="2" t="s">
         <v>161</v>
       </c>
@@ -2178,13 +2422,16 @@
         <v>2</v>
       </c>
       <c r="C81">
+        <v>79</v>
+      </c>
+      <c r="D81">
         <v>30</v>
       </c>
-      <c r="D81">
+      <c r="E81">
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:5">
       <c r="A82" s="2" t="s">
         <v>162</v>
       </c>
@@ -2192,13 +2439,16 @@
         <v>2</v>
       </c>
       <c r="C82">
+        <v>80</v>
+      </c>
+      <c r="D82">
         <v>30</v>
       </c>
-      <c r="D82">
+      <c r="E82">
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:5">
       <c r="A83" s="2" t="s">
         <v>163</v>
       </c>
@@ -2206,13 +2456,16 @@
         <v>2</v>
       </c>
       <c r="C83">
+        <v>81</v>
+      </c>
+      <c r="D83">
         <v>30</v>
       </c>
-      <c r="D83">
+      <c r="E83">
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:5">
       <c r="A84" s="2" t="s">
         <v>164</v>
       </c>
@@ -2220,13 +2473,16 @@
         <v>2</v>
       </c>
       <c r="C84">
+        <v>82</v>
+      </c>
+      <c r="D84">
         <v>13</v>
       </c>
-      <c r="D84">
+      <c r="E84">
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:5">
       <c r="A85" s="2" t="s">
         <v>165</v>
       </c>
@@ -2234,13 +2490,16 @@
         <v>2</v>
       </c>
       <c r="C85">
+        <v>83</v>
+      </c>
+      <c r="D85">
         <v>13</v>
       </c>
-      <c r="D85">
+      <c r="E85">
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:5">
       <c r="A86" s="2" t="s">
         <v>166</v>
       </c>
@@ -2248,13 +2507,16 @@
         <v>2</v>
       </c>
       <c r="C86">
+        <v>84</v>
+      </c>
+      <c r="D86">
         <v>13</v>
       </c>
-      <c r="D86">
+      <c r="E86">
         <v>28</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:5">
       <c r="A87" s="2" t="s">
         <v>167</v>
       </c>
@@ -2262,13 +2524,16 @@
         <v>2</v>
       </c>
       <c r="C87">
+        <v>85</v>
+      </c>
+      <c r="D87">
         <v>21</v>
       </c>
-      <c r="D87">
+      <c r="E87">
         <v>29</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:5">
       <c r="A88" s="2" t="s">
         <v>168</v>
       </c>
@@ -2276,13 +2541,16 @@
         <v>2</v>
       </c>
       <c r="C88">
+        <v>86</v>
+      </c>
+      <c r="D88">
         <v>21</v>
       </c>
-      <c r="D88">
+      <c r="E88">
         <v>29</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:5">
       <c r="A89" s="2" t="s">
         <v>169</v>
       </c>
@@ -2290,13 +2558,16 @@
         <v>2</v>
       </c>
       <c r="C89">
+        <v>87</v>
+      </c>
+      <c r="D89">
         <v>21</v>
       </c>
-      <c r="D89">
+      <c r="E89">
         <v>29</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:5">
       <c r="A90" s="2" t="s">
         <v>170</v>
       </c>
@@ -2304,13 +2575,16 @@
         <v>2</v>
       </c>
       <c r="C90">
+        <v>88</v>
+      </c>
+      <c r="D90">
         <v>12</v>
       </c>
-      <c r="D90">
+      <c r="E90">
         <v>30</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:5">
       <c r="A91" s="2" t="s">
         <v>171</v>
       </c>
@@ -2318,13 +2592,16 @@
         <v>2</v>
       </c>
       <c r="C91">
+        <v>89</v>
+      </c>
+      <c r="D91">
         <v>12</v>
       </c>
-      <c r="D91">
+      <c r="E91">
         <v>30</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:5">
       <c r="A92" s="2" t="s">
         <v>172</v>
       </c>
@@ -2332,13 +2609,16 @@
         <v>2</v>
       </c>
       <c r="C92">
+        <v>90</v>
+      </c>
+      <c r="D92">
         <v>12</v>
       </c>
-      <c r="D92">
+      <c r="E92">
         <v>30</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:5">
       <c r="A93" s="2" t="s">
         <v>173</v>
       </c>
@@ -2346,13 +2626,16 @@
         <v>2</v>
       </c>
       <c r="C93">
+        <v>91</v>
+      </c>
+      <c r="D93">
         <v>22</v>
       </c>
-      <c r="D93">
+      <c r="E93">
         <v>31</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:5">
       <c r="A94" s="2" t="s">
         <v>174</v>
       </c>
@@ -2360,13 +2643,16 @@
         <v>2</v>
       </c>
       <c r="C94">
+        <v>92</v>
+      </c>
+      <c r="D94">
         <v>22</v>
       </c>
-      <c r="D94">
+      <c r="E94">
         <v>31</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:5">
       <c r="A95" s="2" t="s">
         <v>175</v>
       </c>
@@ -2374,13 +2660,16 @@
         <v>2</v>
       </c>
       <c r="C95">
+        <v>93</v>
+      </c>
+      <c r="D95">
         <v>22</v>
       </c>
-      <c r="D95">
+      <c r="E95">
         <v>31</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:5">
       <c r="A96" s="2" t="s">
         <v>176</v>
       </c>
@@ -2388,13 +2677,16 @@
         <v>2</v>
       </c>
       <c r="C96">
+        <v>94</v>
+      </c>
+      <c r="D96">
         <v>38</v>
       </c>
-      <c r="D96">
+      <c r="E96">
         <v>32</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:5">
       <c r="A97" s="2" t="s">
         <v>177</v>
       </c>
@@ -2402,13 +2694,16 @@
         <v>2</v>
       </c>
       <c r="C97">
+        <v>95</v>
+      </c>
+      <c r="D97">
         <v>38</v>
       </c>
-      <c r="D97">
+      <c r="E97">
         <v>32</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:5">
       <c r="A98" s="2" t="s">
         <v>178</v>
       </c>
@@ -2416,13 +2711,16 @@
         <v>2</v>
       </c>
       <c r="C98">
+        <v>96</v>
+      </c>
+      <c r="D98">
         <v>38</v>
       </c>
-      <c r="D98">
+      <c r="E98">
         <v>33</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:5">
       <c r="A99" s="2" t="s">
         <v>179</v>
       </c>
@@ -2430,13 +2728,16 @@
         <v>2</v>
       </c>
       <c r="C99">
+        <v>97</v>
+      </c>
+      <c r="D99">
         <v>10</v>
       </c>
-      <c r="D99">
+      <c r="E99">
         <v>34</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:5">
       <c r="A100" s="2" t="s">
         <v>180</v>
       </c>
@@ -2444,13 +2745,16 @@
         <v>2</v>
       </c>
       <c r="C100">
+        <v>98</v>
+      </c>
+      <c r="D100">
         <v>10</v>
       </c>
-      <c r="D100">
+      <c r="E100">
         <v>34</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:5">
       <c r="A101" s="2" t="s">
         <v>181</v>
       </c>
@@ -2458,13 +2762,16 @@
         <v>2</v>
       </c>
       <c r="C101">
+        <v>99</v>
+      </c>
+      <c r="D101">
         <v>10</v>
       </c>
-      <c r="D101">
+      <c r="E101">
         <v>34</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:5">
       <c r="A102" s="2" t="s">
         <v>182</v>
       </c>
@@ -2472,13 +2779,16 @@
         <v>2</v>
       </c>
       <c r="C102">
+        <v>100</v>
+      </c>
+      <c r="D102">
         <v>8</v>
       </c>
-      <c r="D102">
+      <c r="E102">
         <v>35</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:5">
       <c r="A103" s="2" t="s">
         <v>183</v>
       </c>
@@ -2486,13 +2796,16 @@
         <v>2</v>
       </c>
       <c r="C103">
+        <v>101</v>
+      </c>
+      <c r="D103">
         <v>8</v>
       </c>
-      <c r="D103">
+      <c r="E103">
         <v>35</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:5">
       <c r="A104" s="2" t="s">
         <v>184</v>
       </c>
@@ -2500,13 +2813,16 @@
         <v>2</v>
       </c>
       <c r="C104">
+        <v>102</v>
+      </c>
+      <c r="D104">
         <v>8</v>
       </c>
-      <c r="D104">
+      <c r="E104">
         <v>35</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:5">
       <c r="A105" s="2" t="s">
         <v>185</v>
       </c>
@@ -2514,13 +2830,16 @@
         <v>2</v>
       </c>
       <c r="C105">
+        <v>103</v>
+      </c>
+      <c r="D105">
         <v>3</v>
       </c>
-      <c r="D105">
+      <c r="E105">
         <v>36</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:5">
       <c r="A106" s="2" t="s">
         <v>186</v>
       </c>
@@ -2528,13 +2847,16 @@
         <v>2</v>
       </c>
       <c r="C106">
+        <v>104</v>
+      </c>
+      <c r="D106">
         <v>3</v>
       </c>
-      <c r="D106">
+      <c r="E106">
         <v>36</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:5">
       <c r="A107" s="2" t="s">
         <v>187</v>
       </c>
@@ -2542,13 +2864,16 @@
         <v>2</v>
       </c>
       <c r="C107">
+        <v>105</v>
+      </c>
+      <c r="D107">
         <v>3</v>
       </c>
-      <c r="D107">
+      <c r="E107">
         <v>36</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:5">
       <c r="A108" s="2" t="s">
         <v>188</v>
       </c>
@@ -2556,13 +2881,16 @@
         <v>2</v>
       </c>
       <c r="C108">
+        <v>106</v>
+      </c>
+      <c r="D108">
         <v>31</v>
       </c>
-      <c r="D108">
+      <c r="E108">
         <v>37</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:5">
       <c r="A109" s="2" t="s">
         <v>189</v>
       </c>
@@ -2570,13 +2898,16 @@
         <v>2</v>
       </c>
       <c r="C109">
+        <v>107</v>
+      </c>
+      <c r="D109">
         <v>31</v>
       </c>
-      <c r="D109">
+      <c r="E109">
         <v>37</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:5">
       <c r="A110" s="2" t="s">
         <v>190</v>
       </c>
@@ -2584,13 +2915,16 @@
         <v>2</v>
       </c>
       <c r="C110">
+        <v>108</v>
+      </c>
+      <c r="D110">
         <v>31</v>
       </c>
-      <c r="D110">
+      <c r="E110">
         <v>37</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:5">
       <c r="A111" s="2" t="s">
         <v>191</v>
       </c>
@@ -2598,13 +2932,16 @@
         <v>2</v>
       </c>
       <c r="C111">
+        <v>109</v>
+      </c>
+      <c r="D111">
         <v>27</v>
       </c>
-      <c r="D111">
+      <c r="E111">
         <v>38</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:5">
       <c r="A112" s="2" t="s">
         <v>192</v>
       </c>
@@ -2612,13 +2949,16 @@
         <v>2</v>
       </c>
       <c r="C112">
+        <v>110</v>
+      </c>
+      <c r="D112">
         <v>27</v>
       </c>
-      <c r="D112">
+      <c r="E112">
         <v>38</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:5">
       <c r="A113" s="2" t="s">
         <v>193</v>
       </c>
@@ -2626,13 +2966,16 @@
         <v>2</v>
       </c>
       <c r="C113">
+        <v>111</v>
+      </c>
+      <c r="D113">
         <v>27</v>
       </c>
-      <c r="D113">
+      <c r="E113">
         <v>38</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:5">
       <c r="A114" s="2" t="s">
         <v>194</v>
       </c>
@@ -2640,13 +2983,16 @@
         <v>2</v>
       </c>
       <c r="C114">
+        <v>112</v>
+      </c>
+      <c r="D114">
         <v>32</v>
       </c>
-      <c r="D114">
+      <c r="E114">
         <v>39</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:5">
       <c r="A115" s="2" t="s">
         <v>195</v>
       </c>
@@ -2654,13 +3000,16 @@
         <v>2</v>
       </c>
       <c r="C115">
+        <v>113</v>
+      </c>
+      <c r="D115">
         <v>32</v>
       </c>
-      <c r="D115">
+      <c r="E115">
         <v>39</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:5">
       <c r="A116" s="2" t="s">
         <v>196</v>
       </c>
@@ -2668,9 +3017,12 @@
         <v>2</v>
       </c>
       <c r="C116">
+        <v>114</v>
+      </c>
+      <c r="D116">
         <v>32</v>
       </c>
-      <c r="D116">
+      <c r="E116">
         <v>39</v>
       </c>
     </row>
